--- a/BalanceSheet/COUP_bal.xlsx
+++ b/BalanceSheet/COUP_bal.xlsx
@@ -1064,19 +1064,19 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>584000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>306000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-856000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>-885000.0</v>
+        <v>3000000.0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>406000.0</v>
+        <v>4000000.0</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>3008000.0</v>
